--- a/assets/disciplinas/LOB1010.xlsx
+++ b/assets/disciplinas/LOB1010.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-9,EM-8,EB-8,EP-10,EQD-9,EQN-12</t>
+    <t>EF-9,EM-8,EB-8,EP-10,EQD-8,EQN-11</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOB1010.xlsx
+++ b/assets/disciplinas/LOB1010.xlsx
@@ -80,7 +80,7 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840618 - José Antonio Nunes Romeiro</t>
+    <t>6376612 - Daisy Rafaela da Silva</t>
   </si>
   <si>
     <t>Programa resumido:</t>

--- a/assets/disciplinas/LOB1010.xlsx
+++ b/assets/disciplinas/LOB1010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,8 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>GERAL: Dar noções gerais de direito, despertando o sentimento de cidadania através das garantias fundamentais asseguradas pela Constituição.
-ESPECÍFICO: Preparar o aluno para o mercado de trabalho com as noções mínimas necessárias de direito relacionadas à sua profissão de engenheiro.</t>
+    <t>6376612 - Daisy Rafaela da Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -80,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>6376612 - Daisy Rafaela da Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Noções gerais de direito. O sistema constitucional brasileiro. Noções de direito civil. Propriedade intelectual. Noções de direito comercial e comercial internacional. Noções de direito administrativo. Noções de direito do trabalho. Noções de direito tributário. Regulamentação profissional.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -95,16 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>01 - NOÇÕES GERAIS DE DIREITO: Orientação da disciplina. Conceito de Direito. Ato jurídico e ordem jurídica. Os vários ramos do Direito. Conceito de legislação. Jurisprudência e doutrina.
-02 - O SISTEMA CONSTITUCIONAL BRASILEIRO: Federação. República. Regime representativo. As garantias individuais.
-03 - NOÇÕES DE DIREITO CIVIL: Pessoas e bens. Direito de família. Atos jurídicos. Contratos. Atos ilícitos
-04 - NOÇÕES DE DIREITO COMERCIAL: Atos do comércio. Sociedades comerciais. Título de crédito. O cheque. A letra de câmbio. A nota promissória e a duplicata. Propriedade Industrial. Inventos, marcas e patentes. Proteção do direito autoral. . Contratos Comerciais: práticas ilegais e abusivas; regras de contratos internacionais. Da proteção ao consumidor
-05 - NOÇÕES DE DIREITO ADMINISTRATIVO: Ato administrativo e fato administrativo. Serviço público e de utilidade pública. Licitação e contrato administrativo.
-06 - NOÇÕES DE DIREITO DO TRABALHO: Conceitos fundamentais. Relações entre empregador e empregado. Higiene e segurança do trabalho. Previdência social. Justiça do trabalho.
-07 - NOÇÕES DE DIREITO TRIBUTÁRIO: O sistema tributário nacional. Tributos. Impostos, taxas e contribuições. Preços e tarifas.
-08 - REGULAMENTAÇÃO PROFISSIONAL: A garantia constitucional do exercício da profissão. A lei nº 5.194/66. Os órgãos regulamentadores da profissão. O exercício profissional. Atribuições. As atividades técnicas e econômicas da Engenharia. Responsabilidades decorrentes do exercício da engenharia.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -114,35 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Provas</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>NF= (P1+P2)/2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Reestudo com trabalhos e prova</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>01. BATALHA, Wilson de Souza Campos. Introdução ao Estudo do Direito: Os Fundamentos e a Visão Histórica. Rio de Janeiro : Forense, 1981
-02. LIMA, Hermes. Introdução à Ciência do Direito. Rio de Janeiro: Freitas Bastos, 1980. 
-03. NADER, Paulo. Introdução ao Estudo do Direito. Rio de Janeiro: Forense, 1982. 
-04. PAUPERIO, A. Machado. Introdução ao Estudo do Direito. Rio de Janeiro: s.c.p., 1981.
-05. ROQUE, Ana. Direito Comercial Internacional. Portugal: Âncora Editora, 2004. 
-06. PINHO, Rui Rebello; NASCIMENTO, Amauri Mascaro. Instituições de Direito Público e Privado. São Paulo: Atlas, 1984.
-07. REQUIAO, Rubens. Curso de Direito Comercial. São Paulo : Saraiva, 1981.
-08. BALEEIRO, Aliomar. Direito Tributário Brasileiro. Rio de Janeiro : Forense, 1981. 
-09. BASTOS, Celso Ribeiro. Curso de Direito Constitucional.  São Paulo : Saraiva, 1989.
-10. ROMEIRO, José Antonio Nunes. Sociedade por Cotas de Responsabilidades Limitada. Curitiba: Juruá, 1984 
-11. RUSSOMANO, Mozart Victor. Comentários à Consolidação das Leis do Trabalho. Rio De Janeiro: Forense, 1994.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -505,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1010.xlsx
+++ b/assets/disciplinas/LOB1010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,23 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>GERAL: Dar noções gerais de direito, despertando o sentimento de cidadania através das garantias fundamentais asseguradas pela Constituição.
+ESPECÍFICO: Preparar o aluno para o mercado de trabalho com as noções mínimas necessárias de direito relacionadas à sua profissão de engenheiro.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>6376612 - Daisy Rafaela da Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Noções gerais de direito. O sistema constitucional brasileiro. Noções de direito civil. Propriedade intelectual. Noções de direito comercial e comercial internacional. Noções de direito administrativo. Noções de direito do trabalho. Noções de direito tributário. Regulamentação profissional.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +95,16 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>01 - NOÇÕES GERAIS DE DIREITO: Orientação da disciplina. Conceito de Direito. Ato jurídico e ordem jurídica. Os vários ramos do Direito. Conceito de legislação. Jurisprudência e doutrina.
+02 - O SISTEMA CONSTITUCIONAL BRASILEIRO: Federação. República. Regime representativo. As garantias individuais.
+03 - NOÇÕES DE DIREITO CIVIL: Pessoas e bens. Direito de família. Atos jurídicos. Contratos. Atos ilícitos
+04 - NOÇÕES DE DIREITO COMERCIAL: Atos do comércio. Sociedades comerciais. Título de crédito. O cheque. A letra de câmbio. A nota promissória e a duplicata. Propriedade Industrial. Inventos, marcas e patentes. Proteção do direito autoral. . Contratos Comerciais: práticas ilegais e abusivas; regras de contratos internacionais. Da proteção ao consumidor
+05 - NOÇÕES DE DIREITO ADMINISTRATIVO: Ato administrativo e fato administrativo. Serviço público e de utilidade pública. Licitação e contrato administrativo.
+06 - NOÇÕES DE DIREITO DO TRABALHO: Conceitos fundamentais. Relações entre empregador e empregado. Higiene e segurança do trabalho. Previdência social. Justiça do trabalho.
+07 - NOÇÕES DE DIREITO TRIBUTÁRIO: O sistema tributário nacional. Tributos. Impostos, taxas e contribuições. Preços e tarifas.
+08 - REGULAMENTAÇÃO PROFISSIONAL: A garantia constitucional do exercício da profissão. A lei nº 5.194/66. Os órgãos regulamentadores da profissão. O exercício profissional. Atribuições. As atividades técnicas e econômicas da Engenharia. Responsabilidades decorrentes do exercício da engenharia.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +114,35 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Provas</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Provas</t>
+    <t>NF= (P1+P2)/2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>NF= (P1+P2)/2</t>
+    <t>Reestudo com trabalhos e prova</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Reestudo com trabalhos e prova</t>
+    <t>01. BATALHA, Wilson de Souza Campos. Introdução ao Estudo do Direito: Os Fundamentos e a Visão Histórica. Rio de Janeiro : Forense, 1981
+02. LIMA, Hermes. Introdução à Ciência do Direito. Rio de Janeiro: Freitas Bastos, 1980. 
+03. NADER, Paulo. Introdução ao Estudo do Direito. Rio de Janeiro: Forense, 1982. 
+04. PAUPERIO, A. Machado. Introdução ao Estudo do Direito. Rio de Janeiro: s.c.p., 1981.
+05. ROQUE, Ana. Direito Comercial Internacional. Portugal: Âncora Editora, 2004. 
+06. PINHO, Rui Rebello; NASCIMENTO, Amauri Mascaro. Instituições de Direito Público e Privado. São Paulo: Atlas, 1984.
+07. REQUIAO, Rubens. Curso de Direito Comercial. São Paulo : Saraiva, 1981.
+08. BALEEIRO, Aliomar. Direito Tributário Brasileiro. Rio de Janeiro : Forense, 1981. 
+09. BASTOS, Celso Ribeiro. Curso de Direito Constitucional.  São Paulo : Saraiva, 1989.
+10. ROMEIRO, José Antonio Nunes. Sociedade por Cotas de Responsabilidades Limitada. Curitiba: Juruá, 1984 
+11. RUSSOMANO, Mozart Victor. Comentários à Consolidação das Leis do Trabalho. Rio De Janeiro: Forense, 1994.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +630,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
